--- a/medicine/Mort/Décès_en_1809/Décès_en_1809.xlsx
+++ b/medicine/Mort/Décès_en_1809/Décès_en_1809.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1809</t>
+          <t>Décès_en_1809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1809</t>
+          <t>Décès_en_1809</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,35 +536,310 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier
-3 janvier : Henri-Pierre Danloux, peintre, dessinateur et graveur français (° 24 février 1753).
-24 janvier : Martin Fery, homme politique belge (° 3 août 1754).
-Février
-Mars
-5 mars : Charles-Lambert Doutrepont, homme politique et avocat originaire des Pays-Bas autrichiens (° 16 septembre 1746).
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3 janvier : Henri-Pierre Danloux, peintre, dessinateur et graveur français (° 24 février 1753).
+24 janvier : Martin Fery, homme politique belge (° 3 août 1754).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 mars : Charles-Lambert Doutrepont, homme politique et avocat originaire des Pays-Bas autrichiens (° 16 septembre 1746).
 7 mars : Johann Georg Albrechtsberger, compositeur et organiste autrichien (° 3 février 1736).
-27 mars : Joseph-Marie Vien, peintre français (° 18 juin 1716).
-Avril
-Mai
-5 mai : Berek Joselewicz, militaire polonais (° 17 septembre 1764).
+27 mars : Joseph-Marie Vien, peintre français (° 18 juin 1716).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 mai : Berek Joselewicz, militaire polonais (° 17 septembre 1764).
 31 mai
 Joseph Haydn, compositeur autrichien (° 31 mars 1732).
-Jean Lannes, maréchal de l'Empire français, duc de Montebello (° 10 avril 1769).
-Juin
-4 juin : Leopoldo Vaccà Berlinghieri, militaire italien (° 1768).
-8 juin : Thomas Paine, homme politique et pamphlétiste américain (° 29 janvier 1737).
-Juillet
-22 juillet : Jean Senebier, pasteur et botaniste suisse (° 6 mai 1742).
-Août
-Septembre
-1er septembre : Pierre-Joseph Lion, peintre liégeois (° 7 mai 1729).
-18 septembre :  Gabriel-Elzéar Taschereau, homme politique canadien (° 27 mars 1745).
-Octobre
-13 octobre : François-Paul Barletti de Saint-Paul, pédagogue et grammairien français (° 8 février 1734).
-Novembre
-11 novembre : Jean-Joseph Taillasson, peintre, dessinateur et critique français (° 6 juillet 1745)
-27 novembre : Nicolas Dalayrac, compositeur français (° 8 juin 1753).
-Décembre
+Jean Lannes, maréchal de l'Empire français, duc de Montebello (° 10 avril 1769).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 juin : Leopoldo Vaccà Berlinghieri, militaire italien (° 1768).
+8 juin : Thomas Paine, homme politique et pamphlétiste américain (° 29 janvier 1737).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22 juillet : Jean Senebier, pasteur et botaniste suisse (° 6 mai 1742).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er septembre : Pierre-Joseph Lion, peintre liégeois (° 7 mai 1729).
+18 septembre :  Gabriel-Elzéar Taschereau, homme politique canadien (° 27 mars 1745).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>13 octobre : François-Paul Barletti de Saint-Paul, pédagogue et grammairien français (° 8 février 1734).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>11 novembre : Jean-Joseph Taillasson, peintre, dessinateur et critique français (° 6 juillet 1745)
+27 novembre : Nicolas Dalayrac, compositeur français (° 8 juin 1753).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1809</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1809</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Portail sur la mort   Portail du XIXe siècle                    </t>
         </is>
       </c>
